--- a/report_template/buildCase.xlsx
+++ b/report_template/buildCase.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\webApp\gb\report_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\gb\report_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8754" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>起造人案名</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>發照日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>縣市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起造人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -34,19 +42,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>總樓地板面積m^2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>座標</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>承造單位(含可能得標者)</t>
+    <t>面積</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代表人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -54,23 +54,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>與本公司簽約</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最後訪談日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>業務員</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>起造人地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建案地號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -85,19 +84,6 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
@@ -123,7 +109,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -146,57 +132,31 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般_Sheet1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -508,28 +468,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5234375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.05078125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.20703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.62890625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.26171875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.89453125" style="2" customWidth="1"/>
-    <col min="7" max="9" width="8.83984375" style="2"/>
-    <col min="10" max="10" width="12.7890625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="13.41796875" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.83984375" style="2"/>
+    <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12" style="2" customWidth="1"/>
+    <col min="3" max="6" width="14" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.875" style="2"/>
+    <col min="9" max="9" width="31.875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="45.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -539,34 +496,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E1:F1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/report_template/buildCase.xlsx
+++ b/report_template/buildCase.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -67,7 +67,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -148,10 +148,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -476,12 +476,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12" style="2" customWidth="1"/>
-    <col min="3" max="6" width="14" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.25" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14" style="2" customWidth="1"/>
+    <col min="7" max="7" width="28.125" style="2" customWidth="1"/>
     <col min="8" max="8" width="8.875" style="2"/>
-    <col min="9" max="9" width="31.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="54.625" style="2" customWidth="1"/>
     <col min="10" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
